--- a/mentions/frontOfficeMentions.xlsx
+++ b/mentions/frontOfficeMentions.xlsx
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
         <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
         <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
